--- a/data_year/zb/建筑业/建筑业房屋建筑面积.xlsx
+++ b/data_year/zb/建筑业/建筑业房屋建筑面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,527 +468,319 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46237.5</v>
+        <v>84452.84789999999</v>
       </c>
       <c r="C2" t="n">
-        <v>20145</v>
+        <v>22076.1115</v>
       </c>
       <c r="D2" t="n">
-        <v>160141.1</v>
+        <v>708023.5141</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.89999999999</v>
+        <v>277450.2157</v>
       </c>
       <c r="F2" t="n">
-        <v>68112.33</v>
+        <v>39232.1246</v>
       </c>
       <c r="G2" t="n">
-        <v>38515.52</v>
+        <v>18375.0005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46627.5</v>
+        <v>106396.6555</v>
       </c>
       <c r="C3" t="n">
-        <v>20338.2</v>
+        <v>25876.7055</v>
       </c>
       <c r="D3" t="n">
-        <v>188328.7</v>
+        <v>851828.1156</v>
       </c>
       <c r="E3" t="n">
-        <v>97699</v>
+        <v>316429.2755</v>
       </c>
       <c r="F3" t="n">
-        <v>61239.24</v>
+        <v>38202.9794</v>
       </c>
       <c r="G3" t="n">
-        <v>36115.14</v>
+        <v>19253.0823</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44567.3</v>
+        <v>117123.5717</v>
       </c>
       <c r="C4" t="n">
-        <v>19628.2</v>
+        <v>26763.3307</v>
       </c>
       <c r="D4" t="n">
-        <v>215608.7</v>
+        <v>986427.4519</v>
       </c>
       <c r="E4" t="n">
-        <v>110217.1</v>
+        <v>358736.2346</v>
       </c>
       <c r="F4" t="n">
-        <v>52564.4</v>
+        <v>39208.9926</v>
       </c>
       <c r="G4" t="n">
-        <v>30071.3</v>
+        <v>19810.7197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46803.66</v>
+        <v>107280.6141</v>
       </c>
       <c r="C5" t="n">
-        <v>18774.06</v>
+        <v>25392.8176</v>
       </c>
       <c r="D5" t="n">
-        <v>259377.13</v>
+        <v>1132002.8605</v>
       </c>
       <c r="E5" t="n">
-        <v>122827.61</v>
+        <v>401520.9277</v>
       </c>
       <c r="F5" t="n">
-        <v>50488.91</v>
+        <v>36030.2989</v>
       </c>
       <c r="G5" t="n">
-        <v>26727.64</v>
+        <v>17500.1766</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52397.94</v>
+        <v>119295.1011</v>
       </c>
       <c r="C6" t="n">
-        <v>20552.46</v>
+        <v>23870.5718</v>
       </c>
       <c r="D6" t="n">
-        <v>310985.71</v>
+        <v>1249826.35</v>
       </c>
       <c r="E6" t="n">
-        <v>147364.04</v>
+        <v>423357.3031</v>
       </c>
       <c r="F6" t="n">
-        <v>42858.27</v>
+        <v>35788.891</v>
       </c>
       <c r="G6" t="n">
-        <v>23393.34</v>
+        <v>17428.2288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56308.81</v>
+        <v>120844.0463</v>
       </c>
       <c r="C7" t="n">
-        <v>20505.72</v>
+        <v>24233.1378</v>
       </c>
       <c r="D7" t="n">
-        <v>352744.7</v>
+        <v>1239717.6443</v>
       </c>
       <c r="E7" t="n">
-        <v>159406.2</v>
+        <v>420784.9409</v>
       </c>
       <c r="F7" t="n">
-        <v>42257.41</v>
+        <v>32954.2655</v>
       </c>
       <c r="G7" t="n">
-        <v>21750.39</v>
+        <v>16630.8083</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62253.81</v>
+        <v>134362.0049</v>
       </c>
       <c r="C8" t="n">
-        <v>20014.35</v>
+        <v>26978.8503</v>
       </c>
       <c r="D8" t="n">
-        <v>410154.4</v>
+        <v>1264216.2687</v>
       </c>
       <c r="E8" t="n">
-        <v>179673</v>
+        <v>422382.2705</v>
       </c>
       <c r="F8" t="n">
-        <v>40872.53</v>
+        <v>31213.2487</v>
       </c>
       <c r="G8" t="n">
-        <v>21019.33</v>
+        <v>15804.7428</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68768.39999999999</v>
+        <v>132877.1155</v>
       </c>
       <c r="C9" t="n">
-        <v>20539.47</v>
+        <v>25525.7933</v>
       </c>
       <c r="D9" t="n">
-        <v>482005.5</v>
+        <v>1318374.0585</v>
       </c>
       <c r="E9" t="n">
-        <v>203992.7</v>
+        <v>419072.2935</v>
       </c>
       <c r="F9" t="n">
-        <v>42119.61</v>
+        <v>29439.6714</v>
       </c>
       <c r="G9" t="n">
-        <v>21300.87</v>
+        <v>14199.0734</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65633.7175</v>
+        <v>146726.2</v>
       </c>
       <c r="C10" t="n">
-        <v>19853.244</v>
+        <v>25789.1</v>
       </c>
       <c r="D10" t="n">
-        <v>530518.6276</v>
+        <v>1371994.7</v>
       </c>
       <c r="E10" t="n">
-        <v>223592.02</v>
+        <v>411498</v>
       </c>
       <c r="F10" t="n">
-        <v>39247.8219</v>
+        <v>26053.4</v>
       </c>
       <c r="G10" t="n">
-        <v>19224.7564</v>
+        <v>12383.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>72681.00139999999</v>
+        <v>158001.6816</v>
       </c>
       <c r="C11" t="n">
-        <v>21765.3565</v>
+        <v>26707.4782</v>
       </c>
       <c r="D11" t="n">
-        <v>588593.9096</v>
+        <v>1441504.6663</v>
       </c>
       <c r="E11" t="n">
-        <v>245401.6392</v>
+        <v>402335.5289</v>
       </c>
       <c r="F11" t="n">
-        <v>36380.946</v>
+        <v>24403.2887</v>
       </c>
       <c r="G11" t="n">
-        <v>18783.1694</v>
+        <v>10438.7189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84452.84789999999</v>
+        <v>173139.5246</v>
       </c>
       <c r="C12" t="n">
-        <v>22076.1115</v>
+        <v>24141.7201</v>
       </c>
       <c r="D12" t="n">
-        <v>708023.5141</v>
+        <v>1494753.691</v>
       </c>
       <c r="E12" t="n">
-        <v>277450.2157</v>
+        <v>384821.5099</v>
       </c>
       <c r="F12" t="n">
-        <v>39232.1246</v>
+        <v>22992.6458</v>
       </c>
       <c r="G12" t="n">
-        <v>18375.0005</v>
+        <v>9836.096600000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106396.6555</v>
+        <v>170278.3</v>
       </c>
       <c r="C13" t="n">
-        <v>25876.7055</v>
+        <v>28636.3</v>
       </c>
       <c r="D13" t="n">
-        <v>851828.1156</v>
+        <v>1575463.8</v>
       </c>
       <c r="E13" t="n">
-        <v>316429.2755</v>
+        <v>408027.5</v>
       </c>
       <c r="F13" t="n">
-        <v>38202.9794</v>
+        <v>22314.4</v>
       </c>
       <c r="G13" t="n">
-        <v>19253.0823</v>
+        <v>8065.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>117123.5717</v>
-      </c>
-      <c r="C14" t="n">
-        <v>26763.3307</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>986427.4519</v>
+        <v>1564518.1948</v>
       </c>
       <c r="E14" t="n">
-        <v>358736.2346</v>
-      </c>
-      <c r="F14" t="n">
-        <v>39208.9926</v>
-      </c>
-      <c r="G14" t="n">
-        <v>19810.7197</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>107280.6141</v>
-      </c>
-      <c r="C15" t="n">
-        <v>25392.8176</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1132002.8605</v>
-      </c>
-      <c r="E15" t="n">
-        <v>401520.9277</v>
-      </c>
-      <c r="F15" t="n">
-        <v>36030.2989</v>
-      </c>
-      <c r="G15" t="n">
-        <v>17500.1766</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>119295.1011</v>
-      </c>
-      <c r="C16" t="n">
-        <v>23870.5718</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1249826.35</v>
-      </c>
-      <c r="E16" t="n">
-        <v>423357.3031</v>
-      </c>
-      <c r="F16" t="n">
-        <v>35788.891</v>
-      </c>
-      <c r="G16" t="n">
-        <v>17428.2288</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>120844.0463</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24233.1378</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1239717.6443</v>
-      </c>
-      <c r="E17" t="n">
-        <v>420784.9409</v>
-      </c>
-      <c r="F17" t="n">
-        <v>32954.2655</v>
-      </c>
-      <c r="G17" t="n">
-        <v>16630.8083</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>134362.0049</v>
-      </c>
-      <c r="C18" t="n">
-        <v>26978.8503</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1264216.2687</v>
-      </c>
-      <c r="E18" t="n">
-        <v>422382.2705</v>
-      </c>
-      <c r="F18" t="n">
-        <v>31213.2487</v>
-      </c>
-      <c r="G18" t="n">
-        <v>15804.7428</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>132877.1155</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25525.7933</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1318374.0585</v>
-      </c>
-      <c r="E19" t="n">
-        <v>419072.2935</v>
-      </c>
-      <c r="F19" t="n">
-        <v>29439.6714</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14199.0734</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>146726.2</v>
-      </c>
-      <c r="C20" t="n">
-        <v>25789.1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1371994.7</v>
-      </c>
-      <c r="E20" t="n">
-        <v>411498</v>
-      </c>
-      <c r="F20" t="n">
-        <v>26053.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>12383.9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>158001.6816</v>
-      </c>
-      <c r="C21" t="n">
-        <v>26707.4782</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1441504.6663</v>
-      </c>
-      <c r="E21" t="n">
-        <v>402335.5289</v>
-      </c>
-      <c r="F21" t="n">
-        <v>24403.2887</v>
-      </c>
-      <c r="G21" t="n">
-        <v>10438.7189</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>173139.5246</v>
-      </c>
-      <c r="C22" t="n">
-        <v>24141.7201</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1494753.691</v>
-      </c>
-      <c r="E22" t="n">
-        <v>384821.5099</v>
-      </c>
-      <c r="F22" t="n">
-        <v>22992.6458</v>
-      </c>
-      <c r="G22" t="n">
-        <v>9836.096600000001</v>
-      </c>
+        <v>405477.2457</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
